--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3515.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3515.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.486965009819768</v>
+        <v>2.354516744613647</v>
       </c>
       <c r="B1">
-        <v>2.717916054293783</v>
+        <v>2.643781185150146</v>
       </c>
       <c r="C1">
-        <v>3.457350411673187</v>
+        <v>2.003476619720459</v>
       </c>
       <c r="D1">
-        <v>3.990238050256572</v>
+        <v>1.856452465057373</v>
       </c>
       <c r="E1">
-        <v>1.304122657798331</v>
+        <v>1.893656611442566</v>
       </c>
     </row>
   </sheetData>
